--- a/05-truthful-algorithms/code/vcg.xlsx
+++ b/05-truthful-algorithms/code/vcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel\algorithms-5780\05-truthful-algorithms\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FA116-8D0E-473B-A01B-E3B074CEF469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030E403C-F67F-4511-BBDD-C6DF86CDB38F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -912,19 +912,19 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.2265625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.6796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.58984375" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.38671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.609375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.953125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.94140625" style="2" customWidth="1"/>
     <col min="16" max="1025" width="11.5" style="2"/>
   </cols>
   <sheetData>
@@ -1195,23 +1195,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.2265625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.6796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.58984375" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.6796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.38671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.609375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="6.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.953125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.94140625" style="2" customWidth="1"/>
     <col min="16" max="1025" width="11.5" style="2"/>
   </cols>
   <sheetData>
